--- a/_site/Data/ChildSocialInteractions.xlsx
+++ b/_site/Data/ChildSocialInteractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23B20A-346B-D543-AED8-6CE1BD4BBF82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FEA55C-FE69-394D-9E3E-58A91DD61EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38260" yWindow="-4580" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14860" windowHeight="16020" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -84,7 +84,10 @@
 •None of the above</t>
   </si>
   <si>
-    <t>55, 59</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>55, 59, 73</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -530,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -541,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -551,8 +554,11 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -565,7 +571,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -576,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -587,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">

--- a/_site/Data/ChildSocialInteractions.xlsx
+++ b/_site/Data/ChildSocialInteractions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FEA55C-FE69-394D-9E3E-58A91DD61EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC126D0-F370-2F49-A749-A274E85A92C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14860" windowHeight="16020" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>55, 59, 73</t>
+    <t>55, 59, 73, 89</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/ChildSocialInteractions.xlsx
+++ b/_site/Data/ChildSocialInteractions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,10 +45,10 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
     <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Thinking about an average weekday before the COVID-19 pandemic, how many hours did your child spend on the following activities?
@@ -52,6 +61,9 @@
     <t>Select from 0 to 12+hours</t>
   </si>
   <si>
+    <t>04/28/2021-05/01/2021 05/25/2021-05/28/2021 09/01/2021-09/03/2021 01/11/2022-01/18/2022</t>
+  </si>
+  <si>
     <t>Thinking about an average weekday now, how many hours does your child spend on the following activities? 
 -At in-person school or childcare outside the home
 -Playing outside
@@ -68,6 +80,9 @@
     <t>Thinking about an average week (including weekends) before the COVID-19 pandemic, how much time did your child spend with other adults who live outside the household?</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Thinking about an average week (including weekends) now, how much time does your child spend with another child or children who live outside the household?</t>
   </si>
   <si>
@@ -83,18 +98,12 @@
 •Ability to engage with others from different backgrounds
 •None of the above</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>55, 59, 73, 89</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,20 +493,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="75.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="26.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,13 +517,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="126">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -522,113 +531,113 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="126">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="141.75">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>

--- a/_site/Data/ChildSocialInteractions.xlsx
+++ b/_site/Data/ChildSocialInteractions.xlsx
@@ -54,7 +54,7 @@
 -Interacting with phone, TV, and/or computer screen (example: entertainment, learning apps, virtual schooling)</t>
   </si>
   <si>
-    <t>04/28/2021-05/01/2021 05/25/2021-05/28/2021 09/01/2021-09/03/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>04/28/2021-05/01/2021 05/25/2021-05/28/2021 09/01/2021-09/03/2021 01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>[Display this question if "Before the pandemic began in the US (March 2020), did you already have a child that was under the age of 6 years?" = Yes]
@@ -80,7 +80,7 @@
     <t>Thinking about an average week (including weekends), how much time does your child(ren) spend with another child(ren) who live outside the household?</t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2023-01/18/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Thinking about an average week (including weekends) now, how much time does your child spend with other adults who live outside the household?</t>
@@ -89,7 +89,7 @@
     <t>Thinking about an average week (including weekends), how much time does your child(ren) spend with other adults who live outside the household?</t>
   </si>
   <si>
-    <t>01/11/2022-01/18/2022 07/05/2023-07/12/2023</t>
+    <t>01/11/2022-01/18/2022 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Thinking about your child’s current social and emotional development, do any of the following concern you? Select all that apply.</t>
@@ -105,7 +105,7 @@
     <t>Thinking about your child(ren)’s current social and emotional development, do any of the following concern you? Select all that apply.</t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
 </sst>
 </file>
